--- a/FPR3120-NGFW-K9.xlsx
+++ b/FPR3120-NGFW-K9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0515CC98-6E0E-44EE-B931-878917599E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F31C92-AB41-4B76-A2CB-155467E86B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Nguồn cung cấp</t>
   </si>
@@ -120,21 +120,6 @@
     <t>Số lượng VPN Peers tối đa</t>
   </si>
   <si>
-    <t>Thông lượng Stateful inspection firewall</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall (multiprotocol)</t>
-  </si>
-  <si>
-    <t>Số kết nối đồng thời</t>
-  </si>
-  <si>
-    <t>Số kết nối mới mỗi giây</t>
-  </si>
-  <si>
-    <t>Thông lượng IPsec VPN (450B UDP L2L test)</t>
-  </si>
-  <si>
     <t>FPR3120-NGFW-K9</t>
   </si>
   <si>
@@ -148,12 +133,6 @@
   </si>
   <si>
     <t>Thông lượng: NGIPS (1024B)</t>
-  </si>
-  <si>
-    <t>22.0 Gbps</t>
-  </si>
-  <si>
-    <t>17.0 Gbps</t>
   </si>
   <si>
     <t>Thông tin bảo mật của Cisco</t>
@@ -15072,7 +15051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -15084,7 +15063,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -15095,7 +15074,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15103,7 +15082,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15111,7 +15090,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15127,15 +15106,15 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
@@ -15154,147 +15133,107 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
-      <c r="B13" s="7">
-        <v>500000</v>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FPR3120-NGFW-K9.xlsx
+++ b/FPR3120-NGFW-K9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F31C92-AB41-4B76-A2CB-155467E86B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CC1EB-8D5A-4436-B775-517162589948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>TLS</t>
-  </si>
-  <si>
-    <t>Cấu hình, ghi nhật ký, giám sát và báo cáo tập trung được thực hiện bởi Management Center hoặc trên đám mây với Cisco Defense Orchestrator</t>
   </si>
   <si>
     <t>Thông lượng: FW + AVC (1024B)</t>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Tiêu chuẩn, với thông tin về mối đe doạ IP, URL, và DNS</t>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15063,7 +15063,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -15071,31 +15071,31 @@
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7">
         <v>170000</v>
@@ -15106,28 +15106,28 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7">
         <v>7000</v>
@@ -15138,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
@@ -15151,74 +15151,74 @@
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
